--- a/王东东/日报/825日报模板.xlsx
+++ b/王东东/日报/825日报模板.xlsx
@@ -38,15 +38,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上午听课明白了本次实训的总目的和培养目标，确立本次实训的个人目标。下午进行第一次小组会议对需求边界进行了讨论。晚上与老师进行了交流。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.需求不清晰。通过会议讨论，模拟用户使需求更具体。                             2.软件价值挖掘不足。通过与老师的交流拓展了思路，挖掘出了更多的用户需求与平台价值。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.对扩展性需求以及软件价值进行进一步挖掘                                   2.进行原型开发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对原型进行了比较大的修改，对大功能块进行了重新的划分。绘制了UML用例图，填写用例描述。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
